--- a/_site/Data/Staffing&RetentionCC.xlsx
+++ b/_site/Data/Staffing&RetentionCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -52,14 +52,27 @@
   </si>
   <si>
     <t>Prior to the COVID-19 pandemic, did the program you work in experience staffing shortages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Yes
+•No
+•I don't know                                                                                                                               
+•N/A 
+•I didn’t employ anyone else in my program prior to the COVID-19 pandemic
+</t>
+  </si>
+  <si>
+    <t>27, 34</t>
+  </si>
+  <si>
+    <t>Is the program you work in currently experiencing staffing shortages?</t>
   </si>
   <si>
     <t>•Yes
 •No
-•I don't know                                                                                                                               •N/A</t>
-  </si>
-  <si>
-    <t>Is the program you work in currently experiencing staffing shortages?</t>
+•I don't know                                                                                                                               
+•N/A 
+•I don’t employ anyone else in my program</t>
   </si>
   <si>
     <t>What impact has the staffing shortage had on your well-being? Check all that apply.</t>
@@ -83,13 +96,26 @@
 •Other (Specify)  [text entry]</t>
   </si>
   <si>
+    <t>What impact has the staffing shortage had on your experience at work? Select all that apply</t>
+  </si>
+  <si>
+    <t>•I have less time to prepare for the day
+•I cannot complete my usual duties                                                                                          •I have taken on additional tasks, ontop of my usual duties
+•I have less time to support staff and families                                                                        •I spend more time in the classroom providing care 
+•I work longer hours
+•I am less able to take time off                                                                                                  •I have less time for self-care  
+•Other (Specify)  [text entry]</t>
+  </si>
+  <si>
     <t>Compared to before the pandemic, how difficult do you think it is to recruit and retain qualified staff?</t>
   </si>
   <si>
-    <t xml:space="preserve">•More difficult  
-•About the same                                                       
-•Less difficult   
-•I don't know  </t>
+    <t>•More difficuly
+•About the same                                                                                                                          •Less difficult
+•I don't know</t>
+  </si>
+  <si>
+    <t>27,34</t>
   </si>
   <si>
     <t>In your opinion, what are the main challenges to recruiting qualified staff? (Select all that apply)</t>
@@ -450,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A229147-130F-5946-BBC4-309A5552BC1F}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -926,161 +955,167 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="63">
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="94.5">
       <c r="A3" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6">
-        <v>27</v>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="94.5">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6">
-        <v>27</v>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="94.5">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63">
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="141.75">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="94.5">
+      <c r="E6" s="50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="110.25">
-      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="94.5">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="47.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="110.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
-        <v>27</v>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="15.75">
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" customFormat="1" ht="237.95" customHeight="1">
+    <row r="14" spans="1:5" customFormat="1" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" customFormat="1" ht="148.35" customHeight="1">
+    <row r="15" spans="1:5" customFormat="1" ht="237.95" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="127.35" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="148.35" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+    <row r="17" spans="1:5" customFormat="1" ht="127.35" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
@@ -1090,66 +1125,66 @@
       <c r="D18" s="4"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="35"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A22" s="21"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A24" s="22"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="39"/>
       <c r="E24" s="34"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="41"/>
+    <row r="25" spans="1:5" customFormat="1" ht="15.75">
+      <c r="A25" s="22"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="48"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="48"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="43"/>
       <c r="E27" s="41"/>
     </row>
@@ -1157,22 +1192,22 @@
       <c r="A28" s="48"/>
       <c r="B28" s="20"/>
       <c r="C28" s="41"/>
-      <c r="D28" s="44"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="49"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>
@@ -1181,6 +1216,13 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
+    <row r="32" spans="1:5">
+      <c r="A32"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/Staffing&RetentionCC.xlsx
+++ b/_site/Data/Staffing&RetentionCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -62,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t>27, 34</t>
+    <t>27, 34, 38</t>
   </si>
   <si>
     <t>Is the program you work in currently experiencing staffing shortages?</t>
@@ -107,6 +107,9 @@
 •Other (Specify)  [text entry]</t>
   </si>
   <si>
+    <t>34, 38</t>
+  </si>
+  <si>
     <t>Compared to before the pandemic, how difficult do you think it is to recruit and retain qualified staff?</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
 •I don't know</t>
   </si>
   <si>
-    <t>27,34</t>
+    <t>27,34, 38</t>
   </si>
   <si>
     <t>In your opinion, what are the main challenges to recruiting qualified staff? (Select all that apply)</t>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>[Free Response]</t>
+  </si>
+  <si>
+    <t>27, 34</t>
   </si>
 </sst>
 </file>
@@ -916,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A229147-130F-5946-BBC4-309A5552BC1F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -1007,29 +1013,29 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="50">
-        <v>34</v>
+      <c r="E6" s="50" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="94.5">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -1039,10 +1045,10 @@
     </row>
     <row r="9" spans="1:5" ht="110.25">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -1052,10 +1058,10 @@
     </row>
     <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -1065,15 +1071,15 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75">

--- a/_site/Data/Staffing&RetentionCC.xlsx
+++ b/_site/Data/Staffing&RetentionCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Prior to the COVID-19 pandemic, did the program you work in experience staffing shortages?</t>
@@ -62,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t>27, 34, 38</t>
+    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021</t>
   </si>
   <si>
     <t>Is the program you work in currently experiencing staffing shortages?</t>
@@ -107,7 +107,7 @@
 •Other (Specify)  [text entry]</t>
   </si>
   <si>
-    <t>34, 38</t>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021</t>
   </si>
   <si>
     <t>Compared to before the pandemic, how difficult do you think it is to recruit and retain qualified staff?</t>
@@ -116,9 +116,6 @@
     <t>•More difficuly
 •About the same                                                                                                                          •Less difficult
 •I don't know</t>
-  </si>
-  <si>
-    <t>27,34, 38</t>
   </si>
   <si>
     <t>In your opinion, what are the main challenges to recruiting qualified staff? (Select all that apply)</t>
@@ -155,7 +152,7 @@
     <t>[Free Response]</t>
   </si>
   <si>
-    <t>27, 34</t>
+    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,7 +494,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,8 +599,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A229147-130F-5946-BBC4-309A5552BC1F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -932,10 +934,11 @@
     <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="5" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -952,282 +955,292 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="98.1" customHeight="1">
+    <row r="2" spans="1:6" ht="110.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="94.5">
-      <c r="A3" s="16" t="s">
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" ht="94.5">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="94.5">
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="94.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="94.5">
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" ht="94.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="141.75">
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" ht="141.75">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="63">
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" ht="63">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" ht="94.5">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="94.5">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="110.25">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" ht="110.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="47.25">
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" ht="47.25">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" customFormat="1" ht="15.75">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" customFormat="1" ht="237.95" customHeight="1">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" ht="237.95" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" customFormat="1" ht="148.35" customHeight="1">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" ht="148.35" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="127.35" customHeight="1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="35"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A23" s="21"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="34"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A25" s="22"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="41"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="48"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="48"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="49"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/Data/Staffing&RetentionCC.xlsx
+++ b/_site/Data/Staffing&RetentionCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -62,7 +62,7 @@
 </t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021</t>
+    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 01/31/2022-02/07/2022 46</t>
   </si>
   <si>
     <t>Is the program you work in currently experiencing staffing shortages?</t>
@@ -107,7 +107,7 @@
 •Other (Specify)  [text entry]</t>
   </si>
   <si>
-    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021</t>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 01/31/2022-02/07/2022 46</t>
   </si>
   <si>
     <t>Compared to before the pandemic, how difficult do you think it is to recruit and retain qualified staff?</t>
@@ -146,13 +146,22 @@
 •Maybe                        </t>
   </si>
   <si>
+    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021  01/31/2022-02/07/2022 46</t>
+  </si>
+  <si>
     <t>Why are you considering leaving your program?</t>
   </si>
   <si>
     <t>[Free Response]</t>
   </si>
   <si>
-    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021</t>
+    <t>08/02/2021-08/26/2021 10/13/2021-10/17/2021 01/31/2022-02/07/2022 46</t>
+  </si>
+  <si>
+    <t>Do you have an idea of what you would do instead of your job in child care?</t>
+  </si>
+  <si>
+    <t>01/31/2022-02/07/2022 46</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,9 +514,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -603,10 +609,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A229147-130F-5946-BBC4-309A5552BC1F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -959,43 +965,43 @@
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="94.5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="94.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="48"/>
     </row>
     <row r="5" spans="1:6" ht="94.5">
       <c r="A5" s="3" t="s">
@@ -1006,10 +1012,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="141.75">
       <c r="A6" s="3" t="s">
@@ -1020,12 +1026,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="1:6" ht="63">
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="78.75">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1034,10 +1040,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="94.5">
       <c r="A8" s="3" t="s">
@@ -1048,10 +1054,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="110.25">
       <c r="A9" s="6" t="s">
@@ -1062,12 +1068,12 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:6" ht="47.25">
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" ht="94.5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1076,171 +1082,177 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="E10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.5">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="50" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" customFormat="1" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" customFormat="1" ht="237.95" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" customFormat="1" ht="148.35" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="2"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="127.35" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="135.94999999999999" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A23" s="20"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="15.75">
-      <c r="A25" s="21"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="47"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="47"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
